--- a/biology/Botanique/Agaricacées/Agaricacées.xlsx
+++ b/biology/Botanique/Agaricacées/Agaricacées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agaricac%C3%A9es</t>
+          <t>Agaricacées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Agaricaceae (Agaricacées) sont une famille de champignons basidiomycètes essentiellement à lames (certaines bases de données intègrent la famille des Lycoperdaceae sans lames) de l'ordre des Agaricales. 
 Elle comprend une quarantaine de genres, dont certains sont très courants : Agaricus, Coprinus, Lepiota, Macrolepiota et Chlorophyllum.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agaricac%C3%A9es</t>
+          <t>Agaricacées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (29 octobre 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (29 octobre 2013) :
 genre Abstoma
 genre Acutocapillitium
 genre Agaricus
@@ -623,7 +637,7 @@
 genre Xanthagaricus
 genre Xerocoprinus
 genre Zerovaemyces
-Selon NCBI  (4 novembre 2020)[2] :
+Selon NCBI  (4 novembre 2020) :
 genre Abstoma G. Cunn., 1926
 genre Agaricus L., 1753
 genre Allopsalliota Nauta &amp; Bas, 1999
